--- a/docs/Store/Store example.xlsx
+++ b/docs/Store/Store example.xlsx
@@ -4880,7 +4880,7 @@
         <v>152</v>
       </c>
       <c r="E8" s="0">
-        <f>VLOOKUP(D7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D8,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F8" s="0">
         <f>VLOOKUP(A8,Отношения!A:E,4,0)</f>
@@ -4915,7 +4915,7 @@
         <v>165</v>
       </c>
       <c r="E9" s="0">
-        <f>VLOOKUP(D8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D9,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F9" s="0">
         <f>VLOOKUP(A9,Отношения!A:E,4,0)</f>
@@ -4950,7 +4950,7 @@
         <v>203</v>
       </c>
       <c r="E10" s="0">
-        <f>VLOOKUP(D9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D10,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F10" s="0">
         <f>VLOOKUP(A10,Отношения!A:E,4,0)</f>

--- a/docs/Store/Store example.xlsx
+++ b/docs/Store/Store example.xlsx
@@ -198,7 +198,7 @@
     <t>Modification data structure</t>
   </si>
   <si>
-    <t>modifications</t>
+    <t>modifications_table</t>
   </si>
   <si>
     <t>Embedded</t>
@@ -276,7 +276,7 @@
     <t>Address data structure</t>
   </si>
   <si>
-    <t>addresses</t>
+    <t>addresses_table</t>
   </si>
   <si>
     <t>addressLine1</t>
@@ -339,7 +339,7 @@
     <t>Analytics data structure</t>
   </si>
   <si>
-    <t>analyticses</t>
+    <t>analyticses_table</t>
   </si>
   <si>
     <t>PromotionId</t>
@@ -423,7 +423,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>clients</t>
+    <t>client_clients_table</t>
   </si>
   <si>
     <t>Table</t>
@@ -486,7 +486,7 @@
     <t>Client address</t>
   </si>
   <si>
-    <t>client_addresses</t>
+    <t>client_client_addresses_table</t>
   </si>
   <si>
     <t>AddressId</t>
@@ -525,7 +525,7 @@
     <t>Order tables</t>
   </si>
   <si>
-    <t>orders</t>
+    <t>order_orders_table</t>
   </si>
   <si>
     <t>OrderId</t>
@@ -576,7 +576,7 @@
     <t>Order line</t>
   </si>
   <si>
-    <t>order_lines</t>
+    <t>order_order_lines_table</t>
   </si>
   <si>
     <t>OrderLineId</t>
@@ -639,7 +639,7 @@
     <t>OrderLine_itemId</t>
   </si>
   <si>
-    <t>items</t>
+    <t>order_items_table</t>
   </si>
   <si>
     <t>Analytic tables</t>
@@ -648,16 +648,16 @@
     <t>analytics</t>
   </si>
   <si>
-    <t>segments</t>
+    <t>analytics_segments_table</t>
   </si>
   <si>
     <t>Business area</t>
   </si>
   <si>
-    <t>business_areas</t>
-  </si>
-  <si>
-    <t>promotions</t>
+    <t>analytics_business_areas_table</t>
+  </si>
+  <si>
+    <t>analytics_promotions_table</t>
   </si>
   <si>
     <t>userId</t>

--- a/docs/Store/Store example.xlsx
+++ b/docs/Store/Store example.xlsx
@@ -4254,7 +4254,7 @@
         <v>158</v>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;F2,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -4277,7 +4277,7 @@
         <v>123</v>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;F3,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>
@@ -4682,13 +4682,13 @@
         <v>107</v>
       </c>
       <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;H2,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J2" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D2&amp;"."&amp;J2,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -4717,13 +4717,13 @@
         <v>111</v>
       </c>
       <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;H3,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J3" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D3&amp;"."&amp;J3,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -4752,13 +4752,13 @@
         <v>115</v>
       </c>
       <c r="I4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;H4,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;H4,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J4" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K4" s="0">
-        <f>VLOOKUP(D4&amp;"."&amp;J4,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D4&amp;"."&amp;J4,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -4787,13 +4787,13 @@
         <v>158</v>
       </c>
       <c r="I5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;H5,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;H5,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J5" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K5" s="0">
-        <f>VLOOKUP(D5&amp;"."&amp;J5,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D5&amp;"."&amp;J5,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="6">
@@ -4822,13 +4822,13 @@
         <v>158</v>
       </c>
       <c r="I6" s="0">
-        <f>VLOOKUP(B6&amp;"."&amp;H6,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B6&amp;"."&amp;H6,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J6" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K6" s="0">
-        <f>VLOOKUP(D6&amp;"."&amp;J6,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D6&amp;"."&amp;J6,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="7">
@@ -4857,13 +4857,13 @@
         <v>158</v>
       </c>
       <c r="I7" s="0">
-        <f>VLOOKUP(B7&amp;"."&amp;H7,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B7&amp;"."&amp;H7,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J7" t="s" s="0">
         <v>158</v>
       </c>
       <c r="K7" s="0">
-        <f>VLOOKUP(D7&amp;"."&amp;J7,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D7&amp;"."&amp;J7,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="8">
@@ -4892,13 +4892,13 @@
         <v>171</v>
       </c>
       <c r="I8" s="0">
-        <f>VLOOKUP(B8&amp;"."&amp;H8,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B8&amp;"."&amp;H8,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J8" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K8" s="0">
-        <f>VLOOKUP(D8&amp;"."&amp;J8,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D8&amp;"."&amp;J8,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="9">
@@ -4927,13 +4927,13 @@
         <v>187</v>
       </c>
       <c r="I9" s="0">
-        <f>VLOOKUP(B9&amp;"."&amp;H9,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B9&amp;"."&amp;H9,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J9" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K9" s="0">
-        <f>VLOOKUP(D9&amp;"."&amp;J9,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D9&amp;"."&amp;J9,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="10">
@@ -4962,13 +4962,13 @@
         <v>190</v>
       </c>
       <c r="I10" s="0">
-        <f>VLOOKUP(B10&amp;"."&amp;H10,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B10&amp;"."&amp;H10,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J10" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K10" s="0">
-        <f>VLOOKUP(D10&amp;"."&amp;J10,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D10&amp;"."&amp;J10,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>

--- a/docs/Store/Store example.xlsx
+++ b/docs/Store/Store example.xlsx
@@ -910,7 +910,7 @@
         <v>174</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A2,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C2" t="s" s="0">
         <v>229</v>
@@ -924,7 +924,7 @@
         <v>174</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A3,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C3" t="s" s="0">
         <v>231</v>
@@ -938,7 +938,7 @@
         <v>174</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A4,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C4" t="s" s="0">
         <v>233</v>
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A2,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C2" t="s" s="0">
         <v>56</v>
@@ -1130,7 +1130,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A3,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C3" t="s" s="0">
         <v>82</v>
@@ -1156,7 +1156,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A4,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C4" t="s" s="0">
         <v>103</v>
@@ -1182,7 +1182,7 @@
         <v>130</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A5,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C5" t="s" s="0">
         <v>130</v>
@@ -1208,7 +1208,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="0">
-        <f>VLOOKUP(A6,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A6,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C6" t="s" s="0">
         <v>152</v>
@@ -1234,7 +1234,7 @@
         <v>165</v>
       </c>
       <c r="B7" s="0">
-        <f>VLOOKUP(A7,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A7,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C7" t="s" s="0">
         <v>165</v>
@@ -1260,7 +1260,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="0">
-        <f>VLOOKUP(A8,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A8,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C8" t="s" s="0">
         <v>182</v>
@@ -1286,7 +1286,7 @@
         <v>165</v>
       </c>
       <c r="B9" s="0">
-        <f>VLOOKUP(A9,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A9,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C9" t="s" s="0">
         <v>203</v>
@@ -1312,7 +1312,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="0">
-        <f>VLOOKUP(A10,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A10,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C10" t="s" s="0">
         <v>125</v>
@@ -1338,7 +1338,7 @@
         <v>103</v>
       </c>
       <c r="B11" s="0">
-        <f>VLOOKUP(A11,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A11,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C11" t="s" s="0">
         <v>128</v>
@@ -1364,7 +1364,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="0">
-        <f>VLOOKUP(A12,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A12,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C12" t="s" s="0">
         <v>120</v>
@@ -1465,7 +1465,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>60</v>
@@ -1515,7 +1515,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>60</v>
@@ -1562,7 +1562,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(B4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>60</v>
@@ -1612,7 +1612,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(B5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D5" t="s" s="0">
         <v>60</v>
@@ -1659,7 +1659,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(B6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D6" t="s" s="0">
         <v>60</v>
@@ -1706,7 +1706,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(B7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D7" t="s" s="0">
         <v>60</v>
@@ -1750,7 +1750,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(B8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D8" t="s" s="0">
         <v>60</v>
@@ -1797,7 +1797,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="0">
-        <f>VLOOKUP(B9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D9" t="s" s="0">
         <v>60</v>
@@ -1844,7 +1844,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="0">
-        <f>VLOOKUP(B10,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B10,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D10" t="s" s="0">
         <v>60</v>
@@ -1891,7 +1891,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="0">
-        <f>VLOOKUP(B11,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B11,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D11" t="s" s="0">
         <v>60</v>
@@ -1941,7 +1941,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="0">
-        <f>VLOOKUP(B12,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B12,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D12" t="s" s="0">
         <v>60</v>
@@ -1988,7 +1988,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="0">
-        <f>VLOOKUP(B13,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B13,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D13" t="s" s="0">
         <v>60</v>
@@ -2035,7 +2035,7 @@
         <v>103</v>
       </c>
       <c r="C14" s="0">
-        <f>VLOOKUP(B14,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B14,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D14" t="s" s="0">
         <v>60</v>
@@ -2082,7 +2082,7 @@
         <v>130</v>
       </c>
       <c r="C15" s="0">
-        <f>VLOOKUP(B15,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B15,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D15" t="s" s="0">
         <v>60</v>
@@ -2135,7 +2135,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="0">
-        <f>VLOOKUP(B16,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B16,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D16" t="s" s="0">
         <v>60</v>
@@ -2185,7 +2185,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="0">
-        <f>VLOOKUP(B17,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B17,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D17" t="s" s="0">
         <v>60</v>
@@ -2232,7 +2232,7 @@
         <v>130</v>
       </c>
       <c r="C18" s="0">
-        <f>VLOOKUP(B18,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B18,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D18" t="s" s="0">
         <v>146</v>
@@ -2282,7 +2282,7 @@
         <v>130</v>
       </c>
       <c r="C19" s="0">
-        <f>VLOOKUP(B19,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B19,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D19" t="s" s="0">
         <v>146</v>
@@ -2332,7 +2332,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="0">
-        <f>VLOOKUP(B20,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B20,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D20" t="s" s="0">
         <v>150</v>
@@ -2382,7 +2382,7 @@
         <v>130</v>
       </c>
       <c r="C21" s="0">
-        <f>VLOOKUP(B21,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B21,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D21" t="s" s="0">
         <v>151</v>
@@ -2432,7 +2432,7 @@
         <v>152</v>
       </c>
       <c r="C22" s="0">
-        <f>VLOOKUP(B22,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B22,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D22" t="s" s="0">
         <v>60</v>
@@ -2485,7 +2485,7 @@
         <v>152</v>
       </c>
       <c r="C23" s="0">
-        <f>VLOOKUP(B23,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B23,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D23" t="s" s="0">
         <v>60</v>
@@ -2535,7 +2535,7 @@
         <v>152</v>
       </c>
       <c r="C24" s="0">
-        <f>VLOOKUP(B24,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B24,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D24" t="s" s="0">
         <v>60</v>
@@ -2582,7 +2582,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="0">
-        <f>VLOOKUP(B25,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B25,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D25" t="s" s="0">
         <v>60</v>
@@ -2632,7 +2632,7 @@
         <v>152</v>
       </c>
       <c r="C26" s="0">
-        <f>VLOOKUP(B26,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B26,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D26" t="s" s="0">
         <v>151</v>
@@ -2682,7 +2682,7 @@
         <v>152</v>
       </c>
       <c r="C27" s="0">
-        <f>VLOOKUP(B27,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B27,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D27" t="s" s="0">
         <v>151</v>
@@ -2732,7 +2732,7 @@
         <v>165</v>
       </c>
       <c r="C28" s="0">
-        <f>VLOOKUP(B28,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B28,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D28" t="s" s="0">
         <v>60</v>
@@ -2785,7 +2785,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="0">
-        <f>VLOOKUP(B29,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B29,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D29" t="s" s="0">
         <v>60</v>
@@ -2835,7 +2835,7 @@
         <v>165</v>
       </c>
       <c r="C30" s="0">
-        <f>VLOOKUP(B30,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B30,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D30" t="s" s="0">
         <v>60</v>
@@ -2882,7 +2882,7 @@
         <v>165</v>
       </c>
       <c r="C31" s="0">
-        <f>VLOOKUP(B31,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B31,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D31" t="s" s="0">
         <v>60</v>
@@ -2932,7 +2932,7 @@
         <v>165</v>
       </c>
       <c r="C32" s="0">
-        <f>VLOOKUP(B32,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B32,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D32" t="s" s="0">
         <v>60</v>
@@ -2982,7 +2982,7 @@
         <v>165</v>
       </c>
       <c r="C33" s="0">
-        <f>VLOOKUP(B33,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B33,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D33" t="s" s="0">
         <v>60</v>
@@ -3032,7 +3032,7 @@
         <v>165</v>
       </c>
       <c r="C34" s="0">
-        <f>VLOOKUP(B34,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B34,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D34" t="s" s="0">
         <v>150</v>
@@ -3082,7 +3082,7 @@
         <v>165</v>
       </c>
       <c r="C35" s="0">
-        <f>VLOOKUP(B35,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B35,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D35" t="s" s="0">
         <v>151</v>
@@ -3132,7 +3132,7 @@
         <v>182</v>
       </c>
       <c r="C36" s="0">
-        <f>VLOOKUP(B36,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B36,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D36" t="s" s="0">
         <v>60</v>
@@ -3185,7 +3185,7 @@
         <v>182</v>
       </c>
       <c r="C37" s="0">
-        <f>VLOOKUP(B37,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B37,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D37" t="s" s="0">
         <v>60</v>
@@ -3235,7 +3235,7 @@
         <v>182</v>
       </c>
       <c r="C38" s="0">
-        <f>VLOOKUP(B38,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B38,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D38" t="s" s="0">
         <v>60</v>
@@ -3285,7 +3285,7 @@
         <v>182</v>
       </c>
       <c r="C39" s="0">
-        <f>VLOOKUP(B39,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B39,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D39" t="s" s="0">
         <v>150</v>
@@ -3335,7 +3335,7 @@
         <v>182</v>
       </c>
       <c r="C40" s="0">
-        <f>VLOOKUP(B40,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B40,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D40" t="s" s="0">
         <v>60</v>
@@ -3385,7 +3385,7 @@
         <v>182</v>
       </c>
       <c r="C41" s="0">
-        <f>VLOOKUP(B41,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B41,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D41" t="s" s="0">
         <v>60</v>
@@ -3435,7 +3435,7 @@
         <v>182</v>
       </c>
       <c r="C42" s="0">
-        <f>VLOOKUP(B42,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B42,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D42" t="s" s="0">
         <v>151</v>
@@ -3485,7 +3485,7 @@
         <v>203</v>
       </c>
       <c r="C43" s="0">
-        <f>VLOOKUP(B43,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B43,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D43" t="s" s="0">
         <v>60</v>
@@ -3538,7 +3538,7 @@
         <v>203</v>
       </c>
       <c r="C44" s="0">
-        <f>VLOOKUP(B44,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B44,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D44" t="s" s="0">
         <v>60</v>
@@ -3588,7 +3588,7 @@
         <v>203</v>
       </c>
       <c r="C45" s="0">
-        <f>VLOOKUP(B45,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B45,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D45" t="s" s="0">
         <v>60</v>
@@ -3638,7 +3638,7 @@
         <v>203</v>
       </c>
       <c r="C46" s="0">
-        <f>VLOOKUP(B46,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B46,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D46" t="s" s="0">
         <v>151</v>
@@ -3688,7 +3688,7 @@
         <v>125</v>
       </c>
       <c r="C47" s="0">
-        <f>VLOOKUP(B47,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B47,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D47" t="s" s="0">
         <v>60</v>
@@ -3741,7 +3741,7 @@
         <v>125</v>
       </c>
       <c r="C48" s="0">
-        <f>VLOOKUP(B48,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B48,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D48" t="s" s="0">
         <v>60</v>
@@ -3791,7 +3791,7 @@
         <v>125</v>
       </c>
       <c r="C49" s="0">
-        <f>VLOOKUP(B49,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B49,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D49" t="s" s="0">
         <v>151</v>
@@ -3841,7 +3841,7 @@
         <v>128</v>
       </c>
       <c r="C50" s="0">
-        <f>VLOOKUP(B50,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B50,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D50" t="s" s="0">
         <v>60</v>
@@ -3894,7 +3894,7 @@
         <v>128</v>
       </c>
       <c r="C51" s="0">
-        <f>VLOOKUP(B51,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B51,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D51" t="s" s="0">
         <v>60</v>
@@ -3944,7 +3944,7 @@
         <v>128</v>
       </c>
       <c r="C52" s="0">
-        <f>VLOOKUP(B52,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B52,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D52" t="s" s="0">
         <v>151</v>
@@ -3994,7 +3994,7 @@
         <v>120</v>
       </c>
       <c r="C53" s="0">
-        <f>VLOOKUP(B53,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B53,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D53" t="s" s="0">
         <v>60</v>
@@ -4047,7 +4047,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="0">
-        <f>VLOOKUP(B54,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B54,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D54" t="s" s="0">
         <v>60</v>
@@ -4097,7 +4097,7 @@
         <v>120</v>
       </c>
       <c r="C55" s="0">
-        <f>VLOOKUP(B55,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B55,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D55" t="s" s="0">
         <v>151</v>
@@ -4183,7 +4183,7 @@
         <v>152</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>160</v>
@@ -4239,22 +4239,22 @@
         <v>162</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F2" t="s" s="0">
         <v>158</v>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -4262,22 +4262,22 @@
         <v>162</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F3" t="s" s="0">
         <v>123</v>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4336,7 @@
         <v>103</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>107</v>
@@ -4351,7 +4351,7 @@
         <v>120</v>
       </c>
       <c r="H2" s="0">
-        <f>VLOOKUP(G2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I2" t="s" s="0">
         <v>121</v>
@@ -4371,7 +4371,7 @@
         <v>103</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>111</v>
@@ -4386,7 +4386,7 @@
         <v>125</v>
       </c>
       <c r="H3" s="0">
-        <f>VLOOKUP(G3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I3" t="s" s="0">
         <v>121</v>
@@ -4406,7 +4406,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(B4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>115</v>
@@ -4421,7 +4421,7 @@
         <v>128</v>
       </c>
       <c r="H4" s="0">
-        <f>VLOOKUP(G4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I4" t="s" s="0">
         <v>121</v>
@@ -4441,7 +4441,7 @@
         <v>152</v>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(B5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D5" t="s" s="0">
         <v>158</v>
@@ -4456,7 +4456,7 @@
         <v>130</v>
       </c>
       <c r="H5" s="0">
-        <f>VLOOKUP(G5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I5" t="s" s="0">
         <v>121</v>
@@ -4476,7 +4476,7 @@
         <v>165</v>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(B6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D6" t="s" s="0">
         <v>158</v>
@@ -4491,7 +4491,7 @@
         <v>130</v>
       </c>
       <c r="H6" s="0">
-        <f>VLOOKUP(G6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I6" t="s" s="0">
         <v>121</v>
@@ -4511,7 +4511,7 @@
         <v>165</v>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(B7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D7" t="s" s="0">
         <v>171</v>
@@ -4526,7 +4526,7 @@
         <v>152</v>
       </c>
       <c r="H7" s="0">
-        <f>VLOOKUP(G7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I7" t="s" s="0">
         <v>121</v>
@@ -4546,7 +4546,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(B8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D8" t="s" s="0">
         <v>187</v>
@@ -4561,7 +4561,7 @@
         <v>165</v>
       </c>
       <c r="H8" s="0">
-        <f>VLOOKUP(G8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I8" t="s" s="0">
         <v>121</v>
@@ -4581,7 +4581,7 @@
         <v>182</v>
       </c>
       <c r="C9" s="0">
-        <f>VLOOKUP(B9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D9" t="s" s="0">
         <v>190</v>
@@ -4596,7 +4596,7 @@
         <v>203</v>
       </c>
       <c r="H9" s="0">
-        <f>VLOOKUP(G9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I9" t="s" s="0">
         <v>121</v>
@@ -4661,34 +4661,34 @@
         <v>122</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>120</v>
       </c>
       <c r="E2" s="0">
-        <f>VLOOKUP(D2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H2" t="s" s="0">
         <v>107</v>
       </c>
       <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J2" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -4696,34 +4696,34 @@
         <v>126</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>125</v>
       </c>
       <c r="E3" s="0">
-        <f>VLOOKUP(D3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H3" t="s" s="0">
         <v>111</v>
       </c>
       <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J3" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -4731,34 +4731,34 @@
         <v>129</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>128</v>
       </c>
       <c r="E4" s="0">
-        <f>VLOOKUP(D4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H4" t="s" s="0">
         <v>115</v>
       </c>
       <c r="I4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;H4,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;H4,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J4" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K4" s="0">
-        <f>VLOOKUP(D4&amp;"."&amp;J4,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D4&amp;"."&amp;J4,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -4766,34 +4766,34 @@
         <v>164</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D5" t="s" s="0">
         <v>130</v>
       </c>
       <c r="E5" s="0">
-        <f>VLOOKUP(D5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H5" t="s" s="0">
         <v>158</v>
       </c>
       <c r="I5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;H5,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;H5,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J5" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K5" s="0">
-        <f>VLOOKUP(D5&amp;"."&amp;J5,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D5&amp;"."&amp;J5,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="6">
@@ -4801,34 +4801,34 @@
         <v>179</v>
       </c>
       <c r="B6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D6" t="s" s="0">
         <v>130</v>
       </c>
       <c r="E6" s="0">
-        <f>VLOOKUP(D6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H6" t="s" s="0">
         <v>158</v>
       </c>
       <c r="I6" s="0">
-        <f>VLOOKUP(B6&amp;"."&amp;H6,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B6&amp;"."&amp;H6,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J6" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K6" s="0">
-        <f>VLOOKUP(D6&amp;"."&amp;J6,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D6&amp;"."&amp;J6,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="7">
@@ -4836,34 +4836,34 @@
         <v>181</v>
       </c>
       <c r="B7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D7" t="s" s="0">
         <v>152</v>
       </c>
       <c r="E7" s="0">
-        <f>VLOOKUP(D7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H7" t="s" s="0">
         <v>158</v>
       </c>
       <c r="I7" s="0">
-        <f>VLOOKUP(B7&amp;"."&amp;H7,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B7&amp;"."&amp;H7,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J7" t="s" s="0">
         <v>158</v>
       </c>
       <c r="K7" s="0">
-        <f>VLOOKUP(D7&amp;"."&amp;J7,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D7&amp;"."&amp;J7,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="8">
@@ -4871,34 +4871,34 @@
         <v>181</v>
       </c>
       <c r="B8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D8" t="s" s="0">
         <v>152</v>
       </c>
       <c r="E8" s="0">
-        <f>VLOOKUP(D8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H8" t="s" s="0">
         <v>171</v>
       </c>
       <c r="I8" s="0">
-        <f>VLOOKUP(B8&amp;"."&amp;H8,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B8&amp;"."&amp;H8,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J8" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K8" s="0">
-        <f>VLOOKUP(D8&amp;"."&amp;J8,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D8&amp;"."&amp;J8,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="9">
@@ -4906,34 +4906,34 @@
         <v>201</v>
       </c>
       <c r="B9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D9" t="s" s="0">
         <v>165</v>
       </c>
       <c r="E9" s="0">
-        <f>VLOOKUP(D9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H9" t="s" s="0">
         <v>187</v>
       </c>
       <c r="I9" s="0">
-        <f>VLOOKUP(B9&amp;"."&amp;H9,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B9&amp;"."&amp;H9,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J9" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K9" s="0">
-        <f>VLOOKUP(D9&amp;"."&amp;J9,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D9&amp;"."&amp;J9,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="10">
@@ -4941,34 +4941,34 @@
         <v>204</v>
       </c>
       <c r="B10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D10" t="s" s="0">
         <v>203</v>
       </c>
       <c r="E10" s="0">
-        <f>VLOOKUP(D10,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D10,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H10" t="s" s="0">
         <v>190</v>
       </c>
       <c r="I10" s="0">
-        <f>VLOOKUP(B10&amp;"."&amp;H10,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B10&amp;"."&amp;H10,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J10" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K10" s="0">
-        <f>VLOOKUP(D10&amp;"."&amp;J10,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D10&amp;"."&amp;J10,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>

--- a/docs/Store/Store example.xlsx
+++ b/docs/Store/Store example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="249">
   <si>
     <t>Ид</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Код индекса</t>
   </si>
   <si>
-    <t>Ид индекса</t>
-  </si>
-  <si>
     <t>Наименование индекса</t>
   </si>
   <si>
@@ -102,16 +99,13 @@
     <t>Код отношения</t>
   </si>
   <si>
-    <t>Ид отношения</t>
-  </si>
-  <si>
     <t>Наименование отношения</t>
   </si>
   <si>
     <t>Тип отношения</t>
   </si>
   <si>
-    <t>Ид ссылочной таблицы</t>
+    <t>Имя ссылочной таблицы</t>
   </si>
   <si>
     <t>Наименование ссылочной таблицы</t>
@@ -348,364 +342,361 @@
     <t>business_area_id</t>
   </si>
   <si>
+    <t>analyticses_promotion_id</t>
+  </si>
+  <si>
     <t>Reference to Promotion</t>
   </si>
   <si>
     <t>ManyToOne</t>
   </si>
   <si>
+    <t>analytics_promotions</t>
+  </si>
+  <si>
     <t>Promotion</t>
   </si>
   <si>
-    <t>Restrict</t>
-  </si>
-  <si>
-    <t>Analytics_promotionId</t>
+    <t>NoAction</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>analyticses_segment_id</t>
+  </si>
+  <si>
     <t>Reference to Segment</t>
   </si>
   <si>
+    <t>analytics_segments</t>
+  </si>
+  <si>
     <t>Segment</t>
   </si>
   <si>
-    <t>Analytics_segmentId</t>
+    <t>analyticses_business_area_id</t>
   </si>
   <si>
     <t>Reference to BusinessArea</t>
   </si>
   <si>
+    <t>analytics_business_areas</t>
+  </si>
+  <si>
+    <t>Business area</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Client tables</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>client_clients</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>ClientId</t>
+  </si>
+  <si>
+    <t>Client Id</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Client name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>billingAddressLine1</t>
+  </si>
+  <si>
+    <t>billing_address_line1</t>
+  </si>
+  <si>
+    <t>billingAddressLine2</t>
+  </si>
+  <si>
+    <t>billing_address_line2</t>
+  </si>
+  <si>
+    <t>billingCity</t>
+  </si>
+  <si>
+    <t>billing_city</t>
+  </si>
+  <si>
+    <t>billingState</t>
+  </si>
+  <si>
+    <t>billing_state</t>
+  </si>
+  <si>
+    <t>billingCountry</t>
+  </si>
+  <si>
+    <t>billing_country</t>
+  </si>
+  <si>
+    <t>billingPostcode</t>
+  </si>
+  <si>
+    <t>billing_postcode</t>
+  </si>
+  <si>
+    <t>postalAddressLine1</t>
+  </si>
+  <si>
+    <t>postal_address_line1</t>
+  </si>
+  <si>
+    <t>postalAddressLine2</t>
+  </si>
+  <si>
+    <t>postal_address_line2</t>
+  </si>
+  <si>
+    <t>postalCity</t>
+  </si>
+  <si>
+    <t>postal_city</t>
+  </si>
+  <si>
+    <t>postalState</t>
+  </si>
+  <si>
+    <t>postal_state</t>
+  </si>
+  <si>
+    <t>postalCountry</t>
+  </si>
+  <si>
+    <t>postal_country</t>
+  </si>
+  <si>
+    <t>postalPostcode</t>
+  </si>
+  <si>
+    <t>postal_postcode</t>
+  </si>
+  <si>
+    <t>client_clients_promotion_id</t>
+  </si>
+  <si>
+    <t>client_clients_segment_id</t>
+  </si>
+  <si>
+    <t>client_clients_business_area_id</t>
+  </si>
+  <si>
+    <t>ClientAddress</t>
+  </si>
+  <si>
+    <t>Client address</t>
+  </si>
+  <si>
+    <t>client_client_addresses</t>
+  </si>
+  <si>
+    <t>AddressId</t>
+  </si>
+  <si>
+    <t>Address Id</t>
+  </si>
+  <si>
+    <t>Address name</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>client_client_addresses_client_id_id</t>
+  </si>
+  <si>
+    <t>Unique clientId &amp; id</t>
+  </si>
+  <si>
+    <t>client_client_addresses_client_id</t>
+  </si>
+  <si>
+    <t>Reference to client</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order tables</t>
+  </si>
+  <si>
+    <t>order_orders</t>
+  </si>
+  <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>Order Id</t>
+  </si>
+  <si>
+    <t>Order name</t>
+  </si>
+  <si>
+    <t>Delivery address</t>
+  </si>
+  <si>
+    <t>deliveryAddressId</t>
+  </si>
+  <si>
+    <t>delivery_address_id</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>Order status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>order_orders_client_id</t>
+  </si>
+  <si>
+    <t>order_orders_delivery_address_id</t>
+  </si>
+  <si>
+    <t>Reference to address</t>
+  </si>
+  <si>
+    <t>order_orders_promotion_id</t>
+  </si>
+  <si>
+    <t>order_orders_segment_id</t>
+  </si>
+  <si>
+    <t>order_orders_business_area_id</t>
+  </si>
+  <si>
+    <t>OrderLine</t>
+  </si>
+  <si>
+    <t>Order line</t>
+  </si>
+  <si>
+    <t>order_order_lines</t>
+  </si>
+  <si>
+    <t>OrderLineId</t>
+  </si>
+  <si>
+    <t>OrderLine Id</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>ItemId</t>
+  </si>
+  <si>
+    <t>Item Id</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>order_order_lines_order_id</t>
+  </si>
+  <si>
+    <t>Reference to order</t>
+  </si>
+  <si>
+    <t>order_order_lines_item_id</t>
+  </si>
+  <si>
+    <t>Reference to item</t>
+  </si>
+  <si>
+    <t>order_items</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>order_order_lines_promotion_id</t>
+  </si>
+  <si>
+    <t>order_order_lines_segment_id</t>
+  </si>
+  <si>
+    <t>order_order_lines_business_area_id</t>
+  </si>
+  <si>
+    <t>Analytic tables</t>
+  </si>
+  <si>
+    <t>analytics</t>
+  </si>
+  <si>
     <t>BusinessArea</t>
-  </si>
-  <si>
-    <t>Analytics_businessAreaId</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Client tables</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>client_clients</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>ClientId</t>
-  </si>
-  <si>
-    <t>Client Id</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Client name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>billingAddressLine1</t>
-  </si>
-  <si>
-    <t>billing_address_line1</t>
-  </si>
-  <si>
-    <t>billingAddressLine2</t>
-  </si>
-  <si>
-    <t>billing_address_line2</t>
-  </si>
-  <si>
-    <t>billingCity</t>
-  </si>
-  <si>
-    <t>billing_city</t>
-  </si>
-  <si>
-    <t>billingState</t>
-  </si>
-  <si>
-    <t>billing_state</t>
-  </si>
-  <si>
-    <t>billingCountry</t>
-  </si>
-  <si>
-    <t>billing_country</t>
-  </si>
-  <si>
-    <t>billingPostcode</t>
-  </si>
-  <si>
-    <t>billing_postcode</t>
-  </si>
-  <si>
-    <t>postalAddressLine1</t>
-  </si>
-  <si>
-    <t>postal_address_line1</t>
-  </si>
-  <si>
-    <t>postalAddressLine2</t>
-  </si>
-  <si>
-    <t>postal_address_line2</t>
-  </si>
-  <si>
-    <t>postalCity</t>
-  </si>
-  <si>
-    <t>postal_city</t>
-  </si>
-  <si>
-    <t>postalState</t>
-  </si>
-  <si>
-    <t>postal_state</t>
-  </si>
-  <si>
-    <t>postalCountry</t>
-  </si>
-  <si>
-    <t>postal_country</t>
-  </si>
-  <si>
-    <t>postalPostcode</t>
-  </si>
-  <si>
-    <t>postal_postcode</t>
-  </si>
-  <si>
-    <t>Client_promotionId</t>
-  </si>
-  <si>
-    <t>Client_segmentId</t>
-  </si>
-  <si>
-    <t>Client_businessAreaId</t>
-  </si>
-  <si>
-    <t>ClientAddress</t>
-  </si>
-  <si>
-    <t>Client address</t>
-  </si>
-  <si>
-    <t>client_client_addresses</t>
-  </si>
-  <si>
-    <t>AddressId</t>
-  </si>
-  <si>
-    <t>Address Id</t>
-  </si>
-  <si>
-    <t>Address name</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>client_id_id</t>
-  </si>
-  <si>
-    <t>Unique clientId &amp; id</t>
-  </si>
-  <si>
-    <t>ClientAddress_client_id_id</t>
-  </si>
-  <si>
-    <t>Reference to client</t>
-  </si>
-  <si>
-    <t>ClientAddress_clientId</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Order tables</t>
-  </si>
-  <si>
-    <t>order_orders</t>
-  </si>
-  <si>
-    <t>OrderId</t>
-  </si>
-  <si>
-    <t>Order Id</t>
-  </si>
-  <si>
-    <t>Order name</t>
-  </si>
-  <si>
-    <t>Delivery address</t>
-  </si>
-  <si>
-    <t>deliveryAddressId</t>
-  </si>
-  <si>
-    <t>delivery_address_id</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>Order status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Order_clientId</t>
-  </si>
-  <si>
-    <t>Reference to address</t>
-  </si>
-  <si>
-    <t>Order_deliveryAddressId</t>
-  </si>
-  <si>
-    <t>Order_promotionId</t>
-  </si>
-  <si>
-    <t>Order_segmentId</t>
-  </si>
-  <si>
-    <t>Order_businessAreaId</t>
-  </si>
-  <si>
-    <t>OrderLine</t>
-  </si>
-  <si>
-    <t>Order line</t>
-  </si>
-  <si>
-    <t>order_order_lines</t>
-  </si>
-  <si>
-    <t>OrderLineId</t>
-  </si>
-  <si>
-    <t>OrderLine Id</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>ItemId</t>
-  </si>
-  <si>
-    <t>Item Id</t>
-  </si>
-  <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>Reference to order</t>
-  </si>
-  <si>
-    <t>OrderLine_orderId</t>
-  </si>
-  <si>
-    <t>Reference to item</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>OrderLine_itemId</t>
-  </si>
-  <si>
-    <t>OrderLine_promotionId</t>
-  </si>
-  <si>
-    <t>OrderLine_segmentId</t>
-  </si>
-  <si>
-    <t>OrderLine_businessAreaId</t>
-  </si>
-  <si>
-    <t>order_items</t>
-  </si>
-  <si>
-    <t>Analytic tables</t>
-  </si>
-  <si>
-    <t>analytics</t>
-  </si>
-  <si>
-    <t>analytics_segments</t>
-  </si>
-  <si>
-    <t>Business area</t>
-  </si>
-  <si>
-    <t>analytics_business_areas</t>
-  </si>
-  <si>
-    <t>analytics_promotions</t>
   </si>
   <si>
     <t>userId</t>
@@ -879,13 +870,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +886,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,30 +894,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="10">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="10">
-        <v>42</v>
-      </c>
       <c r="D1" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>245</v>
-      </c>
       <c r="C2" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>49</v>
+      <c r="E2" t="s" s="0">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +930,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -944,58 +938,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="11">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s" s="11">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="B1" t="s" s="11">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="11">
-        <v>43</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="D2" t="s" s="0">
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>247</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>245</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>248</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>245</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1027,30 +1024,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -1061,15 +1058,15 @@
         <v>177</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>222</v>
@@ -1078,7 +1075,7 @@
         <v>223</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1122,132 +1119,132 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>53</v>
-      </c>
       <c r="H2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="G3" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="G4" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>163</v>
-      </c>
       <c r="F6" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -1270,10 +1267,10 @@
         <v>178</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -1296,10 +1293,10 @@
         <v>197</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1310,79 +1307,79 @@
         <v>177</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>222</v>
       </c>
       <c r="C10" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>224</v>
-      </c>
       <c r="G10" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>222</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>222</v>
@@ -1397,13 +1394,13 @@
         <v>110</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1468,2050 +1465,2050 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="H3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s" s="0">
+      <c r="I5" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H5" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="G6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="I6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>79</v>
-      </c>
       <c r="K6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="D7" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s" s="0">
+      <c r="I7" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J7" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="D8" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>85</v>
-      </c>
       <c r="K8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="D9" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H9" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J9" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="D10" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H10" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J10" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="D11" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="D12" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
         <v>94</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" t="s">
-        <v>96</v>
-      </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="D13" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>57</v>
       </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="D14" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
         <v>105</v>
       </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>57</v>
       </c>
-      <c r="H14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>59</v>
-      </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C15" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
         <v>126</v>
       </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
-      </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C16" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" t="s">
         <v>131</v>
       </c>
-      <c r="F16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" t="s">
-        <v>130</v>
-      </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C17" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
         <v>134</v>
       </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" t="s">
-        <v>133</v>
-      </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C18" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H18" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J18" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C19" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H19" t="s" s="0">
-        <v>139</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J19" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C20" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="I20" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="J20" t="s" s="0">
-        <v>85</v>
-      </c>
       <c r="K20" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C21" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H21" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J21" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C22" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H22" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="I22" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J22" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C23" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" t="s">
-        <v>59</v>
-      </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C24" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="I24" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H24" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="I24" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J24" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M24" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O24" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C25" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I25" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H25" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="I25" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J25" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O25" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C26" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F26" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="I26" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="J26" t="s" s="0">
-        <v>85</v>
-      </c>
       <c r="K26" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O26" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C27" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="I27" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H27" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="I27" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J27" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M27" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C28" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="I28" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H28" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="I28" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J28" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M28" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O28" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C29" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" t="s">
         <v>57</v>
       </c>
-      <c r="H29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C30" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
         <v>97</v>
       </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>57</v>
       </c>
-      <c r="H30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" t="s">
-        <v>59</v>
-      </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C31" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" t="s">
         <v>101</v>
       </c>
-      <c r="F31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>57</v>
       </c>
-      <c r="H31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C32" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
         <v>105</v>
       </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>57</v>
       </c>
-      <c r="H32" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C33" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
         <v>55</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>56</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>57</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>58</v>
       </c>
-      <c r="I33" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" t="s">
-        <v>60</v>
-      </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C34" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="H34" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="I34" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H34" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I34" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J34" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M34" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O34" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C35" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
         <v>67</v>
       </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>57</v>
       </c>
-      <c r="H35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C36" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F36" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G36" t="s" s="0">
+      <c r="I36" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H36" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J36" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M36" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O36" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D37" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E37" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" t="s">
         <v>167</v>
       </c>
-      <c r="F37" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" t="s">
-        <v>129</v>
-      </c>
-      <c r="M37" t="s">
-        <v>61</v>
-      </c>
-      <c r="N37" t="s">
-        <v>166</v>
-      </c>
       <c r="O37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D38" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E38" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" t="s">
         <v>57</v>
       </c>
-      <c r="H38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D39" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D39" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E39" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" t="s">
         <v>134</v>
       </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" t="s">
-        <v>49</v>
-      </c>
-      <c r="N39" t="s">
-        <v>133</v>
-      </c>
       <c r="O39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D40" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E40" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" t="s">
         <v>126</v>
       </c>
-      <c r="F40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40" t="s">
-        <v>49</v>
-      </c>
-      <c r="M40" t="s">
-        <v>61</v>
-      </c>
-      <c r="N40" t="s">
-        <v>125</v>
-      </c>
       <c r="O40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D41" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E41" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F41" t="s" s="0">
+      <c r="I41" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="G41" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="H41" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="J41" t="s" s="0">
-        <v>79</v>
-      </c>
       <c r="K41" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M41" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O41" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D42" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E42" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H42" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F42" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="G42" t="s" s="0">
+      <c r="I42" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H42" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J42" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O42" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D43" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E43" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F43" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="G43" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="H43" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="I43" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="J43" t="s" s="0">
-        <v>85</v>
-      </c>
       <c r="K43" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M43" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O43" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D44" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E44" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I44" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H44" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J44" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M44" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O44" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D45" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E45" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I45" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H45" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="I45" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="J45" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M45" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O45" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D46" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E46" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" t="s">
         <v>57</v>
       </c>
-      <c r="H46" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" t="s">
-        <v>59</v>
-      </c>
       <c r="J46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D47" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E47" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
         <v>55</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>56</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>57</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>58</v>
       </c>
-      <c r="I47" t="s">
-        <v>59</v>
-      </c>
-      <c r="J47" t="s">
-        <v>60</v>
-      </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D48" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E48" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G48" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F48" t="s" s="0">
+      <c r="H48" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G48" t="s" s="0">
+      <c r="I48" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H48" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I48" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J48" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M48" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O48" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D49" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E49" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
         <v>67</v>
       </c>
-      <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>57</v>
       </c>
-      <c r="H49" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" t="s">
-        <v>59</v>
-      </c>
       <c r="J49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D50" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="E50" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F50" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G50" t="s" s="0">
+      <c r="I50" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H50" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I50" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J50" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M50" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O50" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
@@ -3531,34 +3528,34 @@
         <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N51" t="s">
         <v>179</v>
       </c>
       <c r="O51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
@@ -3578,31 +3575,31 @@
         <v>181</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" t="s">
         <v>57</v>
       </c>
-      <c r="H52" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" t="s">
-        <v>59</v>
-      </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -3619,31 +3616,31 @@
         <v>176</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" t="s">
         <v>134</v>
       </c>
-      <c r="G53" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" t="s">
-        <v>135</v>
-      </c>
-      <c r="J53" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53" t="s">
-        <v>49</v>
-      </c>
-      <c r="N53" t="s">
-        <v>133</v>
-      </c>
       <c r="O53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -3660,34 +3657,34 @@
         <v>176</v>
       </c>
       <c r="E54" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="M54" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" t="s">
         <v>126</v>
       </c>
-      <c r="F54" t="s">
-        <v>169</v>
-      </c>
-      <c r="G54" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" t="s">
-        <v>170</v>
-      </c>
-      <c r="I54" t="s">
-        <v>128</v>
-      </c>
-      <c r="J54" t="s">
-        <v>49</v>
-      </c>
-      <c r="K54" t="s">
-        <v>49</v>
-      </c>
-      <c r="M54" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54" t="s">
-        <v>125</v>
-      </c>
       <c r="O54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
@@ -3710,28 +3707,28 @@
         <v>183</v>
       </c>
       <c r="G55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H55" t="s">
         <v>184</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
@@ -3754,28 +3751,28 @@
         <v>187</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
         <v>187</v>
       </c>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J56" t="s">
         <v>188</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N56" t="s">
         <v>185</v>
       </c>
       <c r="O56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57">
@@ -3792,31 +3789,31 @@
         <v>176</v>
       </c>
       <c r="E57" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" t="s">
         <v>97</v>
       </c>
-      <c r="F57" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>57</v>
       </c>
-      <c r="H57" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" t="s">
-        <v>59</v>
-      </c>
       <c r="J57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58">
@@ -3833,31 +3830,31 @@
         <v>176</v>
       </c>
       <c r="E58" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" t="s">
         <v>101</v>
       </c>
-      <c r="F58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>57</v>
       </c>
-      <c r="H58" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" t="s">
-        <v>59</v>
-      </c>
       <c r="J58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59">
@@ -3874,31 +3871,31 @@
         <v>176</v>
       </c>
       <c r="E59" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" t="s">
         <v>105</v>
       </c>
-      <c r="F59" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>57</v>
       </c>
-      <c r="H59" t="s">
-        <v>107</v>
-      </c>
-      <c r="I59" t="s">
-        <v>59</v>
-      </c>
       <c r="J59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60">
@@ -3915,34 +3912,34 @@
         <v>176</v>
       </c>
       <c r="E60" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" t="s">
         <v>55</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>56</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>57</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>58</v>
       </c>
-      <c r="I60" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" t="s">
-        <v>60</v>
-      </c>
       <c r="K60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -3959,31 +3956,31 @@
         <v>176</v>
       </c>
       <c r="E61" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F61" t="s" s="0">
+      <c r="H61" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G61" t="s" s="0">
+      <c r="I61" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H61" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I61" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J61" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M61" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O61" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
@@ -4000,34 +3997,34 @@
         <v>176</v>
       </c>
       <c r="E62" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" t="s">
         <v>67</v>
       </c>
-      <c r="F62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>57</v>
       </c>
-      <c r="H62" t="s">
-        <v>69</v>
-      </c>
-      <c r="I62" t="s">
-        <v>59</v>
-      </c>
       <c r="J62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
@@ -4044,31 +4041,31 @@
         <v>176</v>
       </c>
       <c r="E63" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F63" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s" s="0">
+      <c r="I63" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H63" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I63" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J63" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M63" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O63" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
@@ -4088,34 +4085,34 @@
         <v>199</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N64" t="s">
         <v>198</v>
       </c>
       <c r="O64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
@@ -4138,28 +4135,28 @@
         <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H65" t="s">
         <v>201</v>
       </c>
       <c r="I65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N65" t="s">
         <v>179</v>
       </c>
       <c r="O65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
@@ -4182,28 +4179,28 @@
         <v>204</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H66" t="s">
         <v>205</v>
       </c>
       <c r="I66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N66" t="s">
         <v>202</v>
       </c>
       <c r="O66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
@@ -4220,31 +4217,31 @@
         <v>196</v>
       </c>
       <c r="E67" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" t="s">
         <v>97</v>
       </c>
-      <c r="F67" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>57</v>
       </c>
-      <c r="H67" t="s">
-        <v>99</v>
-      </c>
-      <c r="I67" t="s">
-        <v>59</v>
-      </c>
       <c r="J67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -4261,31 +4258,31 @@
         <v>196</v>
       </c>
       <c r="E68" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" t="s">
         <v>101</v>
       </c>
-      <c r="F68" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="I68" t="s">
         <v>57</v>
       </c>
-      <c r="H68" t="s">
-        <v>103</v>
-      </c>
-      <c r="I68" t="s">
-        <v>59</v>
-      </c>
       <c r="J68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
@@ -4302,31 +4299,31 @@
         <v>196</v>
       </c>
       <c r="E69" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" t="s">
         <v>105</v>
       </c>
-      <c r="F69" t="s">
-        <v>106</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="I69" t="s">
         <v>57</v>
       </c>
-      <c r="H69" t="s">
-        <v>107</v>
-      </c>
-      <c r="I69" t="s">
-        <v>59</v>
-      </c>
       <c r="J69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
@@ -4358,19 +4355,19 @@
         <v>209</v>
       </c>
       <c r="J70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K70" t="s">
         <v>210</v>
       </c>
       <c r="M70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N70" t="s">
         <v>206</v>
       </c>
       <c r="O70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
@@ -4402,19 +4399,19 @@
         <v>209</v>
       </c>
       <c r="J71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K71" t="s">
         <v>210</v>
       </c>
       <c r="M71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N71" t="s">
         <v>211</v>
       </c>
       <c r="O71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
@@ -4431,34 +4428,34 @@
         <v>196</v>
       </c>
       <c r="E72" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" t="s">
         <v>55</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>56</v>
       </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
         <v>57</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>58</v>
       </c>
-      <c r="I72" t="s">
-        <v>59</v>
-      </c>
-      <c r="J72" t="s">
-        <v>60</v>
-      </c>
       <c r="K72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
@@ -4475,31 +4472,31 @@
         <v>196</v>
       </c>
       <c r="E73" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G73" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F73" t="s" s="0">
+      <c r="H73" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G73" t="s" s="0">
+      <c r="I73" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H73" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I73" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J73" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K73" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M73" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O73" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
@@ -4516,34 +4513,34 @@
         <v>196</v>
       </c>
       <c r="E74" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" t="s">
         <v>67</v>
       </c>
-      <c r="F74" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>57</v>
       </c>
-      <c r="H74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I74" t="s">
-        <v>59</v>
-      </c>
       <c r="J74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -4560,31 +4557,31 @@
         <v>196</v>
       </c>
       <c r="E75" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H75" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F75" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G75" t="s" s="0">
+      <c r="I75" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H75" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I75" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J75" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M75" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O75" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
@@ -4592,46 +4589,46 @@
         <v>177</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E76" t="s" s="0">
         <v>203</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N76" t="s">
         <v>202</v>
       </c>
       <c r="O76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
@@ -4639,13 +4636,13 @@
         <v>177</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s" s="0">
         <v>203</v>
@@ -4654,28 +4651,28 @@
         <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H77" t="s">
         <v>205</v>
       </c>
       <c r="I77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N77" t="s">
         <v>202</v>
       </c>
       <c r="O77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
@@ -4683,13 +4680,13 @@
         <v>177</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s" s="0">
         <v>206</v>
@@ -4707,19 +4704,19 @@
         <v>209</v>
       </c>
       <c r="J78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K78" t="s">
         <v>210</v>
       </c>
       <c r="M78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N78" t="s">
         <v>206</v>
       </c>
       <c r="O78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
@@ -4727,43 +4724,43 @@
         <v>177</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F79" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" t="s">
         <v>55</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>56</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>57</v>
       </c>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>58</v>
       </c>
-      <c r="I79" t="s">
-        <v>59</v>
-      </c>
-      <c r="J79" t="s">
-        <v>60</v>
-      </c>
       <c r="K79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
@@ -4771,40 +4768,40 @@
         <v>177</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G80" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F80" t="s" s="0">
+      <c r="H80" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G80" t="s" s="0">
+      <c r="I80" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H80" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I80" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J80" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M80" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O80" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
@@ -4812,43 +4809,43 @@
         <v>177</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E81" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" t="s">
         <v>67</v>
       </c>
-      <c r="F81" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>57</v>
       </c>
-      <c r="H81" t="s">
-        <v>69</v>
-      </c>
-      <c r="I81" t="s">
-        <v>59</v>
-      </c>
       <c r="J81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
@@ -4856,40 +4853,40 @@
         <v>177</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H82" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F82" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G82" t="s" s="0">
+      <c r="I82" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H82" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I82" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J82" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M82" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O82" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
@@ -4897,46 +4894,46 @@
         <v>222</v>
       </c>
       <c r="B83" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C83" t="s" s="0">
-        <v>224</v>
-      </c>
       <c r="D83" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G83" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" t="s">
+        <v>112</v>
+      </c>
+      <c r="I83" t="s">
         <v>57</v>
       </c>
-      <c r="H83" t="s">
-        <v>113</v>
-      </c>
-      <c r="I83" t="s">
-        <v>59</v>
-      </c>
       <c r="J83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -4944,43 +4941,43 @@
         <v>222</v>
       </c>
       <c r="B84" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C84" t="s" s="0">
-        <v>224</v>
-      </c>
       <c r="D84" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" t="s">
+        <v>133</v>
+      </c>
+      <c r="I84" t="s">
         <v>57</v>
       </c>
-      <c r="H84" t="s">
-        <v>132</v>
-      </c>
-      <c r="I84" t="s">
-        <v>59</v>
-      </c>
       <c r="J84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
@@ -4988,43 +4985,43 @@
         <v>222</v>
       </c>
       <c r="B85" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C85" t="s" s="0">
-        <v>224</v>
-      </c>
       <c r="D85" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F85" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" t="s">
         <v>55</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>56</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>57</v>
       </c>
-      <c r="H85" t="s">
+      <c r="J85" t="s">
         <v>58</v>
       </c>
-      <c r="I85" t="s">
-        <v>59</v>
-      </c>
-      <c r="J85" t="s">
-        <v>60</v>
-      </c>
       <c r="K85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86">
@@ -5032,40 +5029,40 @@
         <v>222</v>
       </c>
       <c r="B86" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C86" t="s" s="0">
-        <v>224</v>
-      </c>
       <c r="D86" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E86" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G86" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F86" t="s" s="0">
+      <c r="H86" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G86" t="s" s="0">
+      <c r="I86" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H86" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I86" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J86" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M86" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O86" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
@@ -5073,43 +5070,43 @@
         <v>222</v>
       </c>
       <c r="B87" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C87" t="s" s="0">
-        <v>224</v>
-      </c>
       <c r="D87" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E87" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F87" t="s">
+        <v>66</v>
+      </c>
+      <c r="G87" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" t="s">
         <v>67</v>
       </c>
-      <c r="F87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
         <v>57</v>
       </c>
-      <c r="H87" t="s">
-        <v>69</v>
-      </c>
-      <c r="I87" t="s">
-        <v>59</v>
-      </c>
       <c r="J87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88">
@@ -5117,40 +5114,40 @@
         <v>222</v>
       </c>
       <c r="B88" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C88" t="s" s="0">
-        <v>224</v>
-      </c>
       <c r="D88" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E88" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H88" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F88" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G88" t="s" s="0">
+      <c r="I88" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H88" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I88" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J88" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M88" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O88" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -5158,46 +5155,46 @@
         <v>222</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" t="s">
+        <v>112</v>
+      </c>
+      <c r="I89" t="s">
         <v>57</v>
       </c>
-      <c r="H89" t="s">
-        <v>113</v>
-      </c>
-      <c r="I89" t="s">
-        <v>59</v>
-      </c>
       <c r="J89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -5205,43 +5202,43 @@
         <v>222</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G90" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" t="s">
+        <v>133</v>
+      </c>
+      <c r="I90" t="s">
         <v>57</v>
       </c>
-      <c r="H90" t="s">
-        <v>132</v>
-      </c>
-      <c r="I90" t="s">
-        <v>59</v>
-      </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
@@ -5249,43 +5246,43 @@
         <v>222</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F91" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" t="s">
         <v>55</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>56</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>57</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>58</v>
       </c>
-      <c r="I91" t="s">
-        <v>59</v>
-      </c>
-      <c r="J91" t="s">
-        <v>60</v>
-      </c>
       <c r="K91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
@@ -5293,40 +5290,40 @@
         <v>222</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G92" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F92" t="s" s="0">
+      <c r="H92" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G92" t="s" s="0">
+      <c r="I92" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H92" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I92" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J92" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M92" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O92" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93">
@@ -5334,43 +5331,43 @@
         <v>222</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G93" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" t="s">
         <v>67</v>
       </c>
-      <c r="F93" t="s">
-        <v>68</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>57</v>
       </c>
-      <c r="H93" t="s">
-        <v>69</v>
-      </c>
-      <c r="I93" t="s">
-        <v>59</v>
-      </c>
       <c r="J93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N93" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94">
@@ -5378,40 +5375,40 @@
         <v>222</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E94" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H94" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F94" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G94" t="s" s="0">
+      <c r="I94" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H94" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I94" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J94" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M94" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O94" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -5422,43 +5419,43 @@
         <v>110</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s" s="0">
         <v>110</v>
       </c>
       <c r="E95" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" t="s">
+        <v>112</v>
+      </c>
+      <c r="I95" t="s">
         <v>57</v>
       </c>
-      <c r="H95" t="s">
-        <v>113</v>
-      </c>
-      <c r="I95" t="s">
-        <v>59</v>
-      </c>
       <c r="J95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
@@ -5469,40 +5466,40 @@
         <v>110</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s" s="0">
         <v>110</v>
       </c>
       <c r="E96" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G96" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" t="s">
+        <v>133</v>
+      </c>
+      <c r="I96" t="s">
         <v>57</v>
       </c>
-      <c r="H96" t="s">
-        <v>132</v>
-      </c>
-      <c r="I96" t="s">
-        <v>59</v>
-      </c>
       <c r="J96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
@@ -5513,40 +5510,40 @@
         <v>110</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s" s="0">
         <v>110</v>
       </c>
       <c r="E97" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F97" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" t="s">
         <v>55</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>56</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" t="s">
         <v>57</v>
       </c>
-      <c r="H97" t="s">
+      <c r="J97" t="s">
         <v>58</v>
       </c>
-      <c r="I97" t="s">
-        <v>59</v>
-      </c>
-      <c r="J97" t="s">
-        <v>60</v>
-      </c>
       <c r="K97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -5557,37 +5554,37 @@
         <v>110</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s" s="0">
         <v>110</v>
       </c>
       <c r="E98" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G98" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F98" t="s" s="0">
+      <c r="H98" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G98" t="s" s="0">
+      <c r="I98" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H98" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I98" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J98" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M98" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O98" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
@@ -5598,40 +5595,40 @@
         <v>110</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s" s="0">
         <v>110</v>
       </c>
       <c r="E99" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F99" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" t="s">
         <v>67</v>
       </c>
-      <c r="F99" t="s">
-        <v>68</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
         <v>57</v>
       </c>
-      <c r="H99" t="s">
-        <v>69</v>
-      </c>
-      <c r="I99" t="s">
-        <v>59</v>
-      </c>
       <c r="J99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100">
@@ -5642,37 +5639,37 @@
         <v>110</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s" s="0">
         <v>110</v>
       </c>
       <c r="E100" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H100" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F100" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G100" t="s" s="0">
+      <c r="I100" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="H100" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="I100" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="J100" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M100" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O100" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5690,48 +5687,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="5">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="F1" t="s" s="5">
         <v>23</v>
-      </c>
-      <c r="F1" t="s" s="5">
-        <v>24</v>
       </c>
       <c r="G1" t="s" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <f>B2&amp;"_"&amp;D2</f>
+      <c r="A2" t="s" s="0">
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
+        <v>166</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>165</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +5738,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5749,71 +5746,80 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="6">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="F1" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="G1" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="H1" t="s" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,2,0)</f>
-      </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,3,0)</f>
-      </c>
-      <c r="D2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,4,0)</f>
-      </c>
-      <c r="E2" s="0">
-        <f>VLOOKUP(A2,'Индексы'!A:E,5,0)</f>
-      </c>
       <c r="F2" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
+        <v>59</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,2,0)</f>
-      </c>
-      <c r="C3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,3,0)</f>
-      </c>
-      <c r="D3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,4,0)</f>
-      </c>
-      <c r="E3" s="0">
-        <f>VLOOKUP(A3,'Индексы'!A:E,5,0)</f>
-      </c>
       <c r="F3" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
+        <v>59</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5831,63 +5837,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="7">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="G1" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="H1" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="I1" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="J1" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="I1" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="7">
-        <v>32</v>
       </c>
       <c r="K1" t="s" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <f>B2&amp;"_"&amp;D2</f>
+      <c r="A2" t="s" s="0">
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
+      <c r="C2" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="H2" s="0">
-        <f>VLOOKUP(G2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I2" t="s" s="0">
         <v>111</v>
@@ -5896,33 +5902,33 @@
         <v>111</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <f>B3&amp;"_"&amp;D3</f>
+      <c r="A3" t="s" s="0">
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C3" s="0">
-        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
+      <c r="C3" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>114</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="H3" s="0">
-        <f>VLOOKUP(G3,'Таблицы'!C:D,2,0)</f>
+      <c r="H3" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>111</v>
@@ -5931,33 +5937,33 @@
         <v>111</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <f>B4&amp;"_"&amp;D4</f>
+      <c r="A4" t="s" s="0">
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C4" s="0">
-        <f>VLOOKUP(B4,'Таблицы'!C:D,2,0)</f>
+      <c r="C4" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="H4" s="0">
-        <f>VLOOKUP(G4,'Таблицы'!C:D,2,0)</f>
+        <v>119</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>111</v>
@@ -5966,33 +5972,33 @@
         <v>111</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <f>B5&amp;"_"&amp;D5</f>
+      <c r="A5" t="s" s="0">
+        <v>122</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="C5" s="0">
-        <f>VLOOKUP(B5,'Таблицы'!C:D,2,0)</f>
+        <v>124</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="G5" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="H5" s="0">
-        <f>VLOOKUP(G5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I5" t="s" s="0">
         <v>111</v>
@@ -6001,33 +6007,33 @@
         <v>111</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <f>B6&amp;"_"&amp;D6</f>
+      <c r="A6" t="s" s="0">
+        <v>122</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="C6" s="0">
-        <f>VLOOKUP(B6,'Таблицы'!C:D,2,0)</f>
+        <v>124</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>114</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="H6" s="0">
-        <f>VLOOKUP(G6,'Таблицы'!C:D,2,0)</f>
+      <c r="H6" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>111</v>
@@ -6036,33 +6042,33 @@
         <v>111</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <f>B7&amp;"_"&amp;D7</f>
+      <c r="A7" t="s" s="0">
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>120</v>
-      </c>
-      <c r="C7" s="0">
-        <f>VLOOKUP(B7,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="H7" s="0">
-        <f>VLOOKUP(G7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I7" t="s" s="0">
         <v>111</v>
@@ -6071,33 +6077,33 @@
         <v>111</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <f>B8&amp;"_"&amp;D8</f>
+      <c r="A8" t="s" s="0">
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C8" s="0">
-        <f>VLOOKUP(B8,'Таблицы'!C:D,2,0)</f>
+        <v>166</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>165</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="H8" s="0">
-        <f>VLOOKUP(G8,'Таблицы'!C:D,2,0)</f>
+        <v>124</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>111</v>
@@ -6106,33 +6112,33 @@
         <v>111</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <f>B9&amp;"_"&amp;D9</f>
+      <c r="A9" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C9" s="0">
-        <f>VLOOKUP(B9,'Таблицы'!C:D,2,0)</f>
-      </c>
       <c r="D9" t="s" s="0">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="H9" s="0">
-        <f>VLOOKUP(G9,'Таблицы'!C:D,2,0)</f>
+        <v>124</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>111</v>
@@ -6141,33 +6147,33 @@
         <v>111</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <f>B10&amp;"_"&amp;D10</f>
+      <c r="A10" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C10" s="0">
-        <f>VLOOKUP(B10,'Таблицы'!C:D,2,0)</f>
-      </c>
       <c r="D10" t="s" s="0">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="H10" s="0">
-        <f>VLOOKUP(G10,'Таблицы'!C:D,2,0)</f>
+        <v>166</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>165</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>111</v>
@@ -6176,33 +6182,33 @@
         <v>111</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <f>B11&amp;"_"&amp;D11</f>
+      <c r="A11" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C11" s="0">
-        <f>VLOOKUP(B11,'Таблицы'!C:D,2,0)</f>
-      </c>
       <c r="D11" t="s" s="0">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="G11" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="H11" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="H11" s="0">
-        <f>VLOOKUP(G11,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I11" t="s" s="0">
         <v>111</v>
@@ -6211,33 +6217,33 @@
         <v>111</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <f>B12&amp;"_"&amp;D12</f>
+      <c r="A12" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C12" s="0">
-        <f>VLOOKUP(B12,'Таблицы'!C:D,2,0)</f>
-      </c>
       <c r="D12" t="s" s="0">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>114</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="H12" s="0">
-        <f>VLOOKUP(G12,'Таблицы'!C:D,2,0)</f>
+      <c r="H12" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>111</v>
@@ -6246,33 +6252,33 @@
         <v>111</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <f>B13&amp;"_"&amp;D13</f>
+      <c r="A13" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C13" s="0">
-        <f>VLOOKUP(B13,'Таблицы'!C:D,2,0)</f>
-      </c>
       <c r="D13" t="s" s="0">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="H13" s="0">
-        <f>VLOOKUP(G13,'Таблицы'!C:D,2,0)</f>
+        <v>119</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>111</v>
@@ -6281,33 +6287,33 @@
         <v>111</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <f>B14&amp;"_"&amp;D14</f>
+      <c r="A14" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C14" s="0">
-        <f>VLOOKUP(B14,'Таблицы'!C:D,2,0)</f>
+        <v>197</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>176</v>
-      </c>
-      <c r="H14" s="0">
-        <f>VLOOKUP(G14,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I14" t="s" s="0">
         <v>111</v>
@@ -6316,33 +6322,33 @@
         <v>111</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <f>B15&amp;"_"&amp;D15</f>
+      <c r="A15" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C15" s="0">
-        <f>VLOOKUP(B15,'Таблицы'!C:D,2,0)</f>
+        <v>197</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="H15" s="0">
-        <f>VLOOKUP(G15,'Таблицы'!C:D,2,0)</f>
+        <v>217</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>218</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>111</v>
@@ -6351,33 +6357,33 @@
         <v>111</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <f>B16&amp;"_"&amp;D16</f>
+      <c r="A16" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C16" s="0">
-        <f>VLOOKUP(B16,'Таблицы'!C:D,2,0)</f>
+        <v>197</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="G16" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="H16" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="H16" s="0">
-        <f>VLOOKUP(G16,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I16" t="s" s="0">
         <v>111</v>
@@ -6386,33 +6392,33 @@
         <v>111</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <f>B17&amp;"_"&amp;D17</f>
+      <c r="A17" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C17" s="0">
-        <f>VLOOKUP(B17,'Таблицы'!C:D,2,0)</f>
+        <v>197</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>114</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="H17" s="0">
-        <f>VLOOKUP(G17,'Таблицы'!C:D,2,0)</f>
+      <c r="H17" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="I17" t="s" s="0">
         <v>111</v>
@@ -6421,33 +6427,33 @@
         <v>111</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <f>B18&amp;"_"&amp;D18</f>
+      <c r="A18" t="s" s="0">
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C18" s="0">
-        <f>VLOOKUP(B18,'Таблицы'!C:D,2,0)</f>
+        <v>197</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="H18" s="0">
-        <f>VLOOKUP(G18,'Таблицы'!C:D,2,0)</f>
+        <v>119</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="I18" t="s" s="0">
         <v>111</v>
@@ -6456,7 +6462,7 @@
         <v>111</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6474,667 +6480,667 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="8">
         <v>7</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="I1" t="s" s="8">
+      <c r="K1" t="s" s="8">
         <v>34</v>
-      </c>
-      <c r="J1" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s" s="8">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="E2" s="0">
-        <f>VLOOKUP(D2,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G2" s="0">
-        <f>VLOOKUP(A2,'Отношения'!A:E,5,0)</f>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
+      <c r="K2" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="E3" s="0">
-        <f>VLOOKUP(D3,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G3" s="0">
-        <f>VLOOKUP(A3,'Отношения'!A:E,5,0)</f>
-      </c>
       <c r="H3" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
+        <v>101</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B4" s="0">
-        <f>VLOOKUP(A4,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C4" s="0">
-        <f>VLOOKUP(A4,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="E4" s="0">
-        <f>VLOOKUP(D4,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F4" s="0">
-        <f>VLOOKUP(A4,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G4" s="0">
-        <f>VLOOKUP(A4,'Отношения'!A:E,5,0)</f>
+      <c r="G4" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="I4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;H4,'Поля таблиц'!A:G,7,0)</f>
+        <v>105</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>103</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K4" s="0">
-        <f>VLOOKUP(D4&amp;"."&amp;J4,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="B5" s="0">
-        <f>VLOOKUP(A5,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C5" s="0">
-        <f>VLOOKUP(A5,'Отношения'!A:E,3,0)</f>
+        <v>122</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="D5" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="E5" s="0">
-        <f>VLOOKUP(D5,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F5" s="0">
-        <f>VLOOKUP(A5,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G5" s="0">
-        <f>VLOOKUP(A5,'Отношения'!A:E,5,0)</f>
-      </c>
       <c r="H5" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="I5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;H5,'Поля таблиц'!A:G,7,0)</f>
+        <v>97</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K5" s="0">
-        <f>VLOOKUP(D5&amp;"."&amp;J5,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="B6" s="0">
-        <f>VLOOKUP(A6,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C6" s="0">
-        <f>VLOOKUP(A6,'Отношения'!A:E,3,0)</f>
+        <v>122</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="E6" s="0">
-        <f>VLOOKUP(D6,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F6" s="0">
-        <f>VLOOKUP(A6,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G6" s="0">
-        <f>VLOOKUP(A6,'Отношения'!A:E,5,0)</f>
+      <c r="G6" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="I6" s="0">
-        <f>VLOOKUP(B6&amp;"."&amp;H6,'Поля таблиц'!A:G,7,0)</f>
+        <v>101</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K6" s="0">
-        <f>VLOOKUP(D6&amp;"."&amp;J6,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="B7" s="0">
-        <f>VLOOKUP(A7,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C7" s="0">
-        <f>VLOOKUP(A7,'Отношения'!A:E,3,0)</f>
+        <v>122</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="D7" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="E7" s="0">
-        <f>VLOOKUP(D7,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F7" s="0">
-        <f>VLOOKUP(A7,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G7" s="0">
-        <f>VLOOKUP(A7,'Отношения'!A:E,5,0)</f>
+      <c r="F7" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="I7" s="0">
-        <f>VLOOKUP(B7&amp;"."&amp;H7,'Поля таблиц'!A:G,7,0)</f>
+        <v>105</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>103</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K7" s="0">
-        <f>VLOOKUP(D7&amp;"."&amp;J7,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B8" s="0">
-        <f>VLOOKUP(A8,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C8" s="0">
-        <f>VLOOKUP(A8,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="E8" s="0">
-        <f>VLOOKUP(D8,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F8" s="0">
-        <f>VLOOKUP(A8,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G8" s="0">
-        <f>VLOOKUP(A8,'Отношения'!A:E,5,0)</f>
+      <c r="F8" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="I8" s="0">
-        <f>VLOOKUP(B8&amp;"."&amp;H8,'Поля таблиц'!A:G,7,0)</f>
+        <v>171</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>127</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K8" s="0">
-        <f>VLOOKUP(D8&amp;"."&amp;J8,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="B9" s="0">
-        <f>VLOOKUP(A9,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C9" s="0">
-        <f>VLOOKUP(A9,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="E9" s="0">
-        <f>VLOOKUP(D9,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F9" s="0">
-        <f>VLOOKUP(A9,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G9" s="0">
-        <f>VLOOKUP(A9,'Отношения'!A:E,5,0)</f>
+      <c r="E9" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="I9" s="0">
-        <f>VLOOKUP(B9&amp;"."&amp;H9,'Поля таблиц'!A:G,7,0)</f>
+        <v>171</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>127</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K9" s="0">
-        <f>VLOOKUP(D9&amp;"."&amp;J9,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B10" s="0">
-        <f>VLOOKUP(A10,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C10" s="0">
-        <f>VLOOKUP(A10,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="E10" s="0">
-        <f>VLOOKUP(D10,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F10" s="0">
-        <f>VLOOKUP(A10,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G10" s="0">
-        <f>VLOOKUP(A10,'Отношения'!A:E,5,0)</f>
+      <c r="F10" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>165</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="I10" s="0">
-        <f>VLOOKUP(B10&amp;"."&amp;H10,'Поля таблиц'!A:G,7,0)</f>
+        <v>171</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>127</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="K10" s="0">
-        <f>VLOOKUP(D10&amp;"."&amp;J10,'Поля таблиц'!A:G,7,0)</f>
+        <v>171</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B11" s="0">
-        <f>VLOOKUP(A11,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C11" s="0">
-        <f>VLOOKUP(A11,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="E11" s="0">
-        <f>VLOOKUP(D11,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F11" s="0">
-        <f>VLOOKUP(A11,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G11" s="0">
-        <f>VLOOKUP(A11,'Отношения'!A:E,5,0)</f>
+      <c r="F11" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>165</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="I11" s="0">
-        <f>VLOOKUP(B11&amp;"."&amp;H11,'Поля таблиц'!A:G,7,0)</f>
+        <v>184</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>182</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K11" s="0">
-        <f>VLOOKUP(D11&amp;"."&amp;J11,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B12" s="0">
-        <f>VLOOKUP(A12,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C12" s="0">
-        <f>VLOOKUP(A12,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="E12" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="E12" s="0">
-        <f>VLOOKUP(D12,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F12" s="0">
-        <f>VLOOKUP(A12,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G12" s="0">
-        <f>VLOOKUP(A12,'Отношения'!A:E,5,0)</f>
-      </c>
       <c r="H12" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="I12" s="0">
-        <f>VLOOKUP(B12&amp;"."&amp;H12,'Поля таблиц'!A:G,7,0)</f>
+        <v>97</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K12" s="0">
-        <f>VLOOKUP(D12&amp;"."&amp;J12,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="B13" s="0">
-        <f>VLOOKUP(A13,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C13" s="0">
-        <f>VLOOKUP(A13,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="E13" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="E13" s="0">
-        <f>VLOOKUP(D13,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F13" s="0">
-        <f>VLOOKUP(A13,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G13" s="0">
-        <f>VLOOKUP(A13,'Отношения'!A:E,5,0)</f>
+      <c r="G13" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="I13" s="0">
-        <f>VLOOKUP(B13&amp;"."&amp;H13,'Поля таблиц'!A:G,7,0)</f>
+        <v>101</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K13" s="0">
-        <f>VLOOKUP(D13&amp;"."&amp;J13,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B14" s="0">
-        <f>VLOOKUP(A14,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C14" s="0">
-        <f>VLOOKUP(A14,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="E14" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="E14" s="0">
-        <f>VLOOKUP(D14,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F14" s="0">
-        <f>VLOOKUP(A14,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G14" s="0">
-        <f>VLOOKUP(A14,'Отношения'!A:E,5,0)</f>
+      <c r="F14" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="I14" s="0">
-        <f>VLOOKUP(B14&amp;"."&amp;H14,'Поля таблиц'!A:G,7,0)</f>
+        <v>105</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>103</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="0">
-        <f>VLOOKUP(D14&amp;"."&amp;J14,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B15" s="0">
-        <f>VLOOKUP(A15,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C15" s="0">
-        <f>VLOOKUP(A15,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="F15" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="G15" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="E15" s="0">
-        <f>VLOOKUP(D15,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F15" s="0">
-        <f>VLOOKUP(A15,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G15" s="0">
-        <f>VLOOKUP(A15,'Отношения'!A:E,5,0)</f>
-      </c>
       <c r="H15" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="I15" s="0">
-        <f>VLOOKUP(B15&amp;"."&amp;H15,'Поля таблиц'!A:G,7,0)</f>
+        <v>201</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>180</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K15" s="0">
-        <f>VLOOKUP(D15&amp;"."&amp;J15,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="B16" s="0">
-        <f>VLOOKUP(A16,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C16" s="0">
-        <f>VLOOKUP(A16,'Отношения'!A:E,3,0)</f>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="E16" s="0">
-        <f>VLOOKUP(D16,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F16" s="0">
-        <f>VLOOKUP(A16,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G16" s="0">
-        <f>VLOOKUP(A16,'Отношения'!A:E,5,0)</f>
+      <c r="G16" t="s" s="0">
+        <v>218</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="I16" s="0">
-        <f>VLOOKUP(B16&amp;"."&amp;H16,'Поля таблиц'!A:G,7,0)</f>
+        <v>205</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>203</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K16" s="0">
-        <f>VLOOKUP(D16&amp;"."&amp;J16,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>218</v>
-      </c>
-      <c r="B17" s="0">
-        <f>VLOOKUP(A17,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C17" s="0">
-        <f>VLOOKUP(A17,'Отношения'!A:E,3,0)</f>
+        <v>177</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D17" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="E17" s="0">
-        <f>VLOOKUP(D17,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F17" s="0">
-        <f>VLOOKUP(A17,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G17" s="0">
-        <f>VLOOKUP(A17,'Отношения'!A:E,5,0)</f>
-      </c>
       <c r="H17" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="I17" s="0">
-        <f>VLOOKUP(B17&amp;"."&amp;H17,'Поля таблиц'!A:G,7,0)</f>
+        <v>97</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K17" s="0">
-        <f>VLOOKUP(D17&amp;"."&amp;J17,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>219</v>
-      </c>
-      <c r="B18" s="0">
-        <f>VLOOKUP(A18,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C18" s="0">
-        <f>VLOOKUP(A18,'Отношения'!A:E,3,0)</f>
+        <v>177</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D18" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="E18" s="0">
-        <f>VLOOKUP(D18,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F18" s="0">
-        <f>VLOOKUP(A18,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G18" s="0">
-        <f>VLOOKUP(A18,'Отношения'!A:E,5,0)</f>
+      <c r="G18" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="I18" s="0">
-        <f>VLOOKUP(B18&amp;"."&amp;H18,'Поля таблиц'!A:G,7,0)</f>
+        <v>101</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K18" s="0">
-        <f>VLOOKUP(D18&amp;"."&amp;J18,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B19" s="0">
-        <f>VLOOKUP(A19,'Отношения'!A:E,2,0)</f>
-      </c>
-      <c r="C19" s="0">
-        <f>VLOOKUP(A19,'Отношения'!A:E,3,0)</f>
+        <v>177</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>196</v>
       </c>
       <c r="D19" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="E19" s="0">
-        <f>VLOOKUP(D19,'Таблицы'!C:D,2,0)</f>
-      </c>
-      <c r="F19" s="0">
-        <f>VLOOKUP(A19,'Отношения'!A:E,4,0)</f>
-      </c>
-      <c r="G19" s="0">
-        <f>VLOOKUP(A19,'Отношения'!A:E,5,0)</f>
+      <c r="F19" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="I19" s="0">
-        <f>VLOOKUP(B19&amp;"."&amp;H19,'Поля таблиц'!A:G,7,0)</f>
+        <v>105</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>103</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="K19" s="0">
-        <f>VLOOKUP(D19&amp;"."&amp;J19,'Поля таблиц'!A:G,7,0)</f>
+        <v>112</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7155,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="9">
         <v>12</v>
@@ -7167,7 +7173,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s" s="9">
         <v>13</v>
@@ -7182,10 +7188,10 @@
         <v>17</v>
       </c>
       <c r="K1" t="s" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s" s="9">
         <v>2</v>
@@ -7193,107 +7199,107 @@
     </row>
     <row r="2">
       <c r="B2" t="s" s="0">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>230</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>231</v>
-      </c>
       <c r="G2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="I2" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -7310,25 +7316,25 @@
         <v>180</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -7336,34 +7342,34 @@
         <v>198</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>199</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -7380,60 +7386,60 @@
         <v>203</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="F8" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>240</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>241</v>
-      </c>
       <c r="J8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -7441,16 +7447,16 @@
         <v>206</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>206</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>208</v>
@@ -7459,16 +7465,16 @@
         <v>209</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>210</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -7485,7 +7491,7 @@
         <v>211</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>208</v>
@@ -7494,226 +7500,226 @@
         <v>209</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>210</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>92</v>
-      </c>
       <c r="D11" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H11" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="I11" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H12" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="I12" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>133</v>
-      </c>
       <c r="F13" t="s" s="0">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="D14" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H14" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="I14" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="D15" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H15" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="I15" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>106</v>
-      </c>
       <c r="D16" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H16" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="I16" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Store/Store example.xlsx
+++ b/docs/Store/Store example.xlsx
@@ -174,7 +174,7 @@
     <t>Modification data structure</t>
   </si>
   <si>
-    <t>modifications</t>
+    <t>modifications_table</t>
   </si>
   <si>
     <t>Embedded</t>
@@ -243,7 +243,7 @@
     <t>Address data structure</t>
   </si>
   <si>
-    <t>addresses</t>
+    <t>addresses_table</t>
   </si>
   <si>
     <t>First address line</t>
@@ -303,7 +303,7 @@
     <t>Analytics data structure</t>
   </si>
   <si>
-    <t>analyticses</t>
+    <t>analyticses_table</t>
   </si>
   <si>
     <t>PromotionId</t>
@@ -342,7 +342,7 @@
     <t>business_area_id</t>
   </si>
   <si>
-    <t>analyticses_promotion_id</t>
+    <t>analyticses_table_promotion_id</t>
   </si>
   <si>
     <t>Reference to Promotion</t>
@@ -351,7 +351,7 @@
     <t>ManyToOne</t>
   </si>
   <si>
-    <t>analytics_promotions</t>
+    <t>analytics_promotions_table</t>
   </si>
   <si>
     <t>Promotion</t>
@@ -363,25 +363,25 @@
     <t>id</t>
   </si>
   <si>
-    <t>analyticses_segment_id</t>
+    <t>analyticses_table_segment_id</t>
   </si>
   <si>
     <t>Reference to Segment</t>
   </si>
   <si>
-    <t>analytics_segments</t>
+    <t>analytics_segments_table</t>
   </si>
   <si>
     <t>Segment</t>
   </si>
   <si>
-    <t>analyticses_business_area_id</t>
+    <t>analyticses_table_business_area_id</t>
   </si>
   <si>
     <t>Reference to BusinessArea</t>
   </si>
   <si>
-    <t>analytics_business_areas</t>
+    <t>analytics_business_areas_table</t>
   </si>
   <si>
     <t>Business area</t>
@@ -396,7 +396,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>client_clients</t>
+    <t>client_clients_table</t>
   </si>
   <si>
     <t>Table</t>
@@ -507,13 +507,13 @@
     <t>postal_postcode</t>
   </si>
   <si>
-    <t>client_clients_promotion_id</t>
-  </si>
-  <si>
-    <t>client_clients_segment_id</t>
-  </si>
-  <si>
-    <t>client_clients_business_area_id</t>
+    <t>client_clients_table_promotion_id</t>
+  </si>
+  <si>
+    <t>client_clients_table_segment_id</t>
+  </si>
+  <si>
+    <t>client_clients_table_business_area_id</t>
   </si>
   <si>
     <t>ClientAddress</t>
@@ -522,7 +522,7 @@
     <t>Client address</t>
   </si>
   <si>
-    <t>client_client_addresses</t>
+    <t>client_client_addresses_table</t>
   </si>
   <si>
     <t>AddressId</t>
@@ -540,13 +540,13 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>client_client_addresses_client_id_id</t>
+    <t>client_client_addresses_table_client_id_id</t>
   </si>
   <si>
     <t>Unique clientId &amp; id</t>
   </si>
   <si>
-    <t>client_client_addresses_client_id</t>
+    <t>client_client_addresses_table_client_id</t>
   </si>
   <si>
     <t>Reference to client</t>
@@ -558,7 +558,7 @@
     <t>Order tables</t>
   </si>
   <si>
-    <t>order_orders</t>
+    <t>order_orders_table</t>
   </si>
   <si>
     <t>OrderId</t>
@@ -591,22 +591,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>order_orders_client_id</t>
-  </si>
-  <si>
-    <t>order_orders_delivery_address_id</t>
+    <t>order_orders_table_client_id</t>
+  </si>
+  <si>
+    <t>order_orders_table_delivery_address_id</t>
   </si>
   <si>
     <t>Reference to address</t>
   </si>
   <si>
-    <t>order_orders_promotion_id</t>
-  </si>
-  <si>
-    <t>order_orders_segment_id</t>
-  </si>
-  <si>
-    <t>order_orders_business_area_id</t>
+    <t>order_orders_table_promotion_id</t>
+  </si>
+  <si>
+    <t>order_orders_table_segment_id</t>
+  </si>
+  <si>
+    <t>order_orders_table_business_area_id</t>
   </si>
   <si>
     <t>OrderLine</t>
@@ -615,7 +615,7 @@
     <t>Order line</t>
   </si>
   <si>
-    <t>order_order_lines</t>
+    <t>order_order_lines_table</t>
   </si>
   <si>
     <t>OrderLineId</t>
@@ -663,31 +663,31 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>order_order_lines_order_id</t>
+    <t>order_order_lines_table_order_id</t>
   </si>
   <si>
     <t>Reference to order</t>
   </si>
   <si>
-    <t>order_order_lines_item_id</t>
+    <t>order_order_lines_table_item_id</t>
   </si>
   <si>
     <t>Reference to item</t>
   </si>
   <si>
-    <t>order_items</t>
+    <t>order_items_table</t>
   </si>
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>order_order_lines_promotion_id</t>
-  </si>
-  <si>
-    <t>order_order_lines_segment_id</t>
-  </si>
-  <si>
-    <t>order_order_lines_business_area_id</t>
+    <t>order_order_lines_table_promotion_id</t>
+  </si>
+  <si>
+    <t>order_order_lines_table_segment_id</t>
+  </si>
+  <si>
+    <t>order_order_lines_table_business_area_id</t>
   </si>
   <si>
     <t>Analytic tables</t>
